--- a/src/sample/pr_w_z_d.xlsx
+++ b/src/sample/pr_w_z_d.xlsx
@@ -535,43 +535,16 @@
     <xf numFmtId="2" fontId="5" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -581,6 +554,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -593,14 +572,35 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -652,7 +652,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29BC0319-57CC-4944-94B5-AAB120DD1F1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29BC0319-57CC-4944-94B5-AAB120DD1F1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -982,8 +982,8 @@
   </sheetPr>
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="H6" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -994,7 +994,7 @@
     <col min="5" max="5" width="38.6640625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="33.88671875" customWidth="1"/>
-    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="8" max="8" width="23" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" customWidth="1"/>
     <col min="10" max="10" width="24.5546875" customWidth="1"/>
     <col min="11" max="11" width="17.88671875" customWidth="1"/>
@@ -1008,116 +1008,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
     </row>
     <row r="2" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
     </row>
     <row r="3" spans="1:25" ht="56.25" customHeight="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
     </row>
     <row r="4" spans="1:25" ht="92.25" customHeight="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
     </row>
     <row r="5" spans="1:25" ht="45" customHeight="1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="26">
         <v>2022</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="40" t="s">
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
     </row>
     <row r="6" spans="1:25" ht="45" customHeight="1">
       <c r="B6" s="20"/>
@@ -1139,53 +1139,53 @@
       <c r="R6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="45" customHeight="1">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
     </row>
     <row r="8" spans="1:25" ht="50.25" customHeight="1">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
     </row>
     <row r="9" spans="1:25" ht="47.25" customHeight="1">
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -1202,12 +1202,12 @@
       <c r="R9" s="11"/>
     </row>
     <row r="10" spans="1:25" ht="39" customHeight="1">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
@@ -1224,26 +1224,26 @@
       <c r="S10" s="11"/>
     </row>
     <row r="11" spans="1:25" ht="80.25" customHeight="1">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
       <c r="S11" s="11"/>
     </row>
     <row r="12" spans="1:25" ht="9.75" customHeight="1">
@@ -1285,70 +1285,70 @@
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:25" ht="88.5" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="37"/>
-      <c r="J14" s="32" t="s">
+      <c r="I14" s="48"/>
+      <c r="J14" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="37"/>
-      <c r="M14" s="38" t="s">
+      <c r="L14" s="48"/>
+      <c r="M14" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="39"/>
-      <c r="O14" s="32" t="s">
+      <c r="N14" s="50"/>
+      <c r="O14" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="P14" s="30" t="s">
+      <c r="P14" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Q14" s="30" t="s">
+      <c r="Q14" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="R14" s="32" t="s">
+      <c r="R14" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="28.5" customHeight="1">
-      <c r="A15" s="43"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="31"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="36"/>
       <c r="H15" s="19" t="s">
         <v>4</v>
       </c>
       <c r="I15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="33"/>
+      <c r="J15" s="42"/>
       <c r="K15" s="19" t="s">
         <v>4</v>
       </c>
@@ -1361,10 +1361,10 @@
       <c r="N15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="33"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="33"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="42"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
@@ -1782,26 +1782,26 @@
       <c r="S35" s="5"/>
     </row>
     <row r="36" spans="1:19" ht="28.2">
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="35" t="s">
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="35"/>
+      <c r="G36" s="46"/>
       <c r="S36" s="5"/>
     </row>
     <row r="37" spans="1:19" ht="28.2">
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
-      <c r="F37" s="28" t="s">
+      <c r="F37" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G37" s="28"/>
+      <c r="G37" s="43"/>
       <c r="S37" s="5"/>
     </row>
     <row r="38" spans="1:19" ht="28.2">
@@ -1810,20 +1810,20 @@
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="F38" s="35" t="s">
+      <c r="F38" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="35"/>
+      <c r="G38" s="46"/>
       <c r="S38" s="5"/>
     </row>
     <row r="39" spans="1:19" ht="28.2">
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G39" s="28"/>
+      <c r="G39" s="43"/>
       <c r="S39" s="5"/>
     </row>
     <row r="40" spans="1:19">
@@ -1903,22 +1903,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="30">
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="A1:R3"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="B8:R8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="A11:R11"/>
     <mergeCell ref="Q14:Q15"/>
@@ -1933,6 +1917,22 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="O14:O15"/>
     <mergeCell ref="P14:P15"/>
+    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="A1:R3"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="M5:R5"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="25" orientation="portrait" r:id="rId1"/>

--- a/src/sample/pr_w_z_d.xlsx
+++ b/src/sample/pr_w_z_d.xlsx
@@ -529,22 +529,46 @@
     <xf numFmtId="1" fontId="21" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -554,12 +578,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -572,35 +590,17 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -652,7 +652,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{29BC0319-57CC-4944-94B5-AAB120DD1F1D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29BC0319-57CC-4944-94B5-AAB120DD1F1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -983,7 +983,7 @@
   <dimension ref="A1:Y63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="H6" sqref="H1:H1048576"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1008,116 +1008,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
     </row>
     <row r="2" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
     </row>
     <row r="3" spans="1:25" ht="56.25" customHeight="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
     </row>
     <row r="4" spans="1:25" ht="92.25" customHeight="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
     </row>
     <row r="5" spans="1:25" ht="45" customHeight="1">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="26">
-        <v>2022</v>
-      </c>
-      <c r="E5" s="31" t="s">
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="30" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
     </row>
     <row r="6" spans="1:25" ht="45" customHeight="1">
       <c r="B6" s="20"/>
@@ -1139,53 +1137,53 @@
       <c r="R6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="45" customHeight="1">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
     </row>
     <row r="8" spans="1:25" ht="50.25" customHeight="1">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
     </row>
     <row r="9" spans="1:25" ht="47.25" customHeight="1">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -1202,12 +1200,12 @@
       <c r="R9" s="11"/>
     </row>
     <row r="10" spans="1:25" ht="39" customHeight="1">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
@@ -1224,26 +1222,26 @@
       <c r="S10" s="11"/>
     </row>
     <row r="11" spans="1:25" ht="80.25" customHeight="1">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
       <c r="S11" s="11"/>
     </row>
     <row r="12" spans="1:25" ht="9.75" customHeight="1">
@@ -1285,70 +1283,70 @@
       <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:25" ht="88.5" customHeight="1">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="41" t="s">
+      <c r="F14" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="47" t="s">
+      <c r="H14" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="41" t="s">
+      <c r="I14" s="36"/>
+      <c r="J14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="47" t="s">
+      <c r="K14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="48"/>
-      <c r="M14" s="49" t="s">
+      <c r="L14" s="36"/>
+      <c r="M14" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="50"/>
-      <c r="O14" s="41" t="s">
+      <c r="N14" s="38"/>
+      <c r="O14" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P14" s="35" t="s">
+      <c r="P14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q14" s="35" t="s">
+      <c r="Q14" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="R14" s="41" t="s">
+      <c r="R14" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="28.5" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="36"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="19" t="s">
         <v>4</v>
       </c>
       <c r="I15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="42"/>
+      <c r="J15" s="32"/>
       <c r="K15" s="19" t="s">
         <v>4</v>
       </c>
@@ -1361,10 +1359,10 @@
       <c r="N15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="42"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="42"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="32"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
@@ -1383,7 +1381,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="9"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="27"/>
+      <c r="J16" s="26"/>
       <c r="K16" s="9"/>
       <c r="L16" s="7"/>
       <c r="M16" s="25"/>
@@ -1406,7 +1404,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="9"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="27"/>
+      <c r="J17" s="26"/>
       <c r="K17" s="9"/>
       <c r="L17" s="7"/>
       <c r="M17" s="25"/>
@@ -1429,7 +1427,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="9"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="27"/>
+      <c r="J18" s="26"/>
       <c r="K18" s="9"/>
       <c r="L18" s="7"/>
       <c r="M18" s="25"/>
@@ -1452,7 +1450,7 @@
       <c r="G19" s="13"/>
       <c r="H19" s="9"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="27"/>
+      <c r="J19" s="26"/>
       <c r="K19" s="9"/>
       <c r="L19" s="7"/>
       <c r="M19" s="25"/>
@@ -1474,7 +1472,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="9"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="27"/>
+      <c r="J20" s="26"/>
       <c r="K20" s="9"/>
       <c r="L20" s="7"/>
       <c r="M20" s="24"/>
@@ -1497,7 +1495,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="9"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="27"/>
+      <c r="J21" s="26"/>
       <c r="K21" s="9"/>
       <c r="L21" s="7"/>
       <c r="M21" s="24"/>
@@ -1520,7 +1518,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="9"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="27"/>
+      <c r="J22" s="26"/>
       <c r="K22" s="9"/>
       <c r="L22" s="7"/>
       <c r="M22" s="24"/>
@@ -1542,7 +1540,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="9"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="27"/>
+      <c r="J23" s="26"/>
       <c r="K23" s="9"/>
       <c r="L23" s="7"/>
       <c r="M23" s="25"/>
@@ -1565,7 +1563,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="9"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="27"/>
+      <c r="J24" s="26"/>
       <c r="K24" s="9"/>
       <c r="L24" s="7"/>
       <c r="M24" s="25"/>
@@ -1588,7 +1586,7 @@
       <c r="G25" s="13"/>
       <c r="H25" s="9"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="27"/>
+      <c r="J25" s="26"/>
       <c r="K25" s="9"/>
       <c r="L25" s="7"/>
       <c r="M25" s="25"/>
@@ -1611,7 +1609,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="9"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="27"/>
+      <c r="J26" s="26"/>
       <c r="K26" s="9"/>
       <c r="L26" s="7"/>
       <c r="M26" s="24"/>
@@ -1634,7 +1632,7 @@
       <c r="G27" s="13"/>
       <c r="H27" s="9"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="27"/>
+      <c r="J27" s="26"/>
       <c r="K27" s="9"/>
       <c r="L27" s="7"/>
       <c r="M27" s="24"/>
@@ -1657,7 +1655,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="9"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="27"/>
+      <c r="J28" s="26"/>
       <c r="K28" s="9"/>
       <c r="L28" s="7"/>
       <c r="M28" s="25"/>
@@ -1680,7 +1678,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="9"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="27"/>
+      <c r="J29" s="26"/>
       <c r="K29" s="9"/>
       <c r="L29" s="7"/>
       <c r="M29" s="25"/>
@@ -1703,7 +1701,7 @@
       <c r="G30" s="13"/>
       <c r="H30" s="9"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="27"/>
+      <c r="J30" s="26"/>
       <c r="K30" s="9"/>
       <c r="L30" s="7"/>
       <c r="M30" s="25"/>
@@ -1724,7 +1722,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="9"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="27"/>
+      <c r="J31" s="26"/>
       <c r="K31" s="9"/>
       <c r="L31" s="7"/>
       <c r="M31" s="25"/>
@@ -1745,7 +1743,7 @@
       <c r="G32" s="13"/>
       <c r="H32" s="9"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="27"/>
+      <c r="J32" s="26"/>
       <c r="K32" s="9"/>
       <c r="L32" s="7"/>
       <c r="M32" s="25"/>
@@ -1766,7 +1764,7 @@
       <c r="G33" s="13"/>
       <c r="H33" s="9"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="27"/>
+      <c r="J33" s="26"/>
       <c r="K33" s="9"/>
       <c r="L33" s="7"/>
       <c r="M33" s="24"/>
@@ -1782,26 +1780,26 @@
       <c r="S35" s="5"/>
     </row>
     <row r="36" spans="1:19" ht="28.2">
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="46" t="s">
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="46"/>
+      <c r="G36" s="34"/>
       <c r="S36" s="5"/>
     </row>
     <row r="37" spans="1:19" ht="28.2">
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
-      <c r="F37" s="43" t="s">
+      <c r="F37" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G37" s="43"/>
+      <c r="G37" s="27"/>
       <c r="S37" s="5"/>
     </row>
     <row r="38" spans="1:19" ht="28.2">
@@ -1810,20 +1808,20 @@
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
-      <c r="F38" s="46" t="s">
+      <c r="F38" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="46"/>
+      <c r="G38" s="34"/>
       <c r="S38" s="5"/>
     </row>
     <row r="39" spans="1:19" ht="28.2">
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G39" s="43"/>
+      <c r="G39" s="27"/>
       <c r="S39" s="5"/>
     </row>
     <row r="40" spans="1:19">
@@ -1903,6 +1901,22 @@
     </sortState>
   </autoFilter>
   <mergeCells count="30">
+    <mergeCell ref="B7:R7"/>
+    <mergeCell ref="A1:R3"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="A11:R11"/>
     <mergeCell ref="Q14:Q15"/>
@@ -1917,22 +1931,6 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="O14:O15"/>
     <mergeCell ref="P14:P15"/>
-    <mergeCell ref="B8:R8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B7:R7"/>
-    <mergeCell ref="A1:R3"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="M5:R5"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="25" orientation="portrait" r:id="rId1"/>
